--- a/Copy of Sprint backlog.xlsx
+++ b/Copy of Sprint backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computing\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computing\Desktop\Software-Engineering-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Sprint Planning</t>
   </si>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">In Developement </t>
   </si>
   <si>
-    <t>Total Time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create Gui </t>
   </si>
   <si>
@@ -74,15 +71,9 @@
     <t xml:space="preserve">Caitlin </t>
   </si>
   <si>
-    <t>Luke / Hayden / Jackson / Darius</t>
-  </si>
-  <si>
     <t>Presentation</t>
   </si>
   <si>
-    <t>Product backlog ID</t>
-  </si>
-  <si>
     <t>Class Diagram</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>Make a word extractor to extract words from headlines</t>
   </si>
   <si>
-    <t>Make the playlist show up</t>
-  </si>
-  <si>
     <t>Caitlin  &amp; Savannah</t>
   </si>
   <si>
@@ -135,6 +123,24 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Creating a spotify playlist</t>
+  </si>
+  <si>
+    <t>Luke / Hayden / Zixun / Darius</t>
+  </si>
+  <si>
+    <t>Zixun / Darius / Luke</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
   </si>
 </sst>
 </file>
@@ -539,326 +545,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="6" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>5</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="7" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>3</v>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="9"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
